--- a/HD-SupplyPracise/excelData/data1.xlsx
+++ b/HD-SupplyPracise/excelData/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaset\git\HD-SupplyPracise\HD-SupplyPracise\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3E0337-CE44-4FB0-9EFB-1C2FDB47C623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B830BF9-4B57-422E-98AD-E2782AC95E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -447,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182B4A04-F3E7-41F3-8B9D-87A40B3207F4}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
